--- a/results.xlsx
+++ b/results.xlsx
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>-0.07764158487227918</v>
+        <v>-0.3673589686506293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>-0.01166294437182158</v>
+        <v>-0.494064879302769</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>-0.03624402208437977</v>
+        <v>-0.1581141649204992</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -731,7 +731,7 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>-0.2903785254578771</v>
+        <v>-0.3211117655817924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -739,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>-0.07556312495384593</v>
+        <v>-0.0806934122682903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>-0.2113874300473495</v>
+        <v>-0.08888986617415939</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -761,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>-0.03484267672282515</v>
+        <v>1.621945296</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>-0.1005988718684213</v>
+        <v>-0.2542860973577912</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -783,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.5077458920360453</v>
+        <v>-0.4093110891364815</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -794,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>-0.1088622707097241</v>
+        <v>-0.04601888183544189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -805,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="C12">
-        <v>0.6023266221080271</v>
+        <v>-0.1044494698466506</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -816,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>-0.346255330390736</v>
+        <v>-0.5177147883450293</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -827,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>-0.01048872427589087</v>
+        <v>-0.1258962275737374</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -838,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>-0.1816661840123902</v>
+        <v>-0.4332845277732771</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -849,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>-0.003565451545812601</v>
+        <v>-0.3943003928378377</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -860,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>-0.04349126972097897</v>
+        <v>-0.1612745154984849</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>-0.1041473791790973</v>
+        <v>-0.1096778391959634</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -882,10 +882,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>-0.1461672491392737</v>
+        <v>-0.3529239986440259</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -893,10 +893,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>-0.09394989589196781</v>
+        <v>0.5111756030350039</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -904,10 +904,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.1894282559393939</v>
+        <v>-0.4925476719563462</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.1321156927900053</v>
+        <v>-0.1360066877272731</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -926,10 +926,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>-0.3378750326260521</v>
+        <v>-0.1394625183668663</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -937,10 +937,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>-0.5239994754947367</v>
+        <v>-0.1362249931835356</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -948,10 +948,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>-0.4632317539042458</v>
+        <v>1.798101974</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -959,10 +959,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>-0.006399975237028621</v>
+        <v>-0.370268720807449</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -970,10 +970,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C27">
-        <v>-0.05918574935773968</v>
+        <v>-0.05629079285857141</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -981,10 +981,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.2239534645899419</v>
+        <v>-0.2934192426730615</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -992,10 +992,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>-0.2218539399328376</v>
+        <v>-0.510946335814189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>-0.04340402322222225</v>
+        <v>-0.2255401197222222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1014,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>-0.05159470651513032</v>
+        <v>-0.09623720404868519</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1025,10 +1025,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C32">
-        <v>-0.01171358546957663</v>
+        <v>-0.07176503026666664</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>-0.4910501545</v>
+        <v>-0.06711884678846158</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>-0.1548590611249374</v>
+        <v>-0.2541648789732828</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>-0.1986017224470898</v>
+        <v>-0.3097450691318682</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>0.6465494722994072</v>
+        <v>-0.202381835070916</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>-0.795000836360922</v>
+        <v>-0.4209349497424815</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>-0.3707008970357142</v>
+        <v>-0.2353763333656463</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>-0.06662476769797065</v>
+        <v>0.009593952604958378</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>-0.4028060398014183</v>
+        <v>-0.5430361020805552</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>-0.0461234364636033</v>
+        <v>-0.2684513682408205</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>-0.1987806831111111</v>
+        <v>-0.07487003933333347</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>-0.2123281727813618</v>
+        <v>-0.09661018464081994</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C44">
-        <v>-0.05002992692570635</v>
+        <v>-0.05255088113653744</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>-0.8345886692874546</v>
+        <v>-0.03882347693977753</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1179,10 +1179,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>-0.5461697678189837</v>
+        <v>-0.3611555681556148</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>1.154628077143415</v>
+        <v>-0.104174962389325</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="C48">
-        <v>-0.1506853959999999</v>
+        <v>-0.5252552701372547</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>-0.03117005534795328</v>
+        <v>-0.4208733655348262</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>-0.1467604941315787</v>
+        <v>-0.05491208570919848</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>-0.1517886545563574</v>
+        <v>-0.1672939867161016</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>2213</v>
+        <v>1944</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>-0.3673589686506293</v>
+        <v>-0.05329672376185496</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>-0.494064879302769</v>
+        <v>-0.04274337231636902</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>-0.1581141649204992</v>
+        <v>-0.2595416808447265</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -728,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>-0.3211117655817924</v>
+        <v>1.466164882</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -739,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>-0.0806934122682903</v>
+        <v>-0.1464042825497364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C7">
-        <v>-0.08888986617415939</v>
+        <v>-0.3881708909152846</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -761,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1.621945296</v>
+        <v>-0.2401695608796535</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>-0.2542860973577912</v>
+        <v>-0.1182037102026573</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -783,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C10">
-        <v>-0.4093110891364815</v>
+        <v>-0.1289745855095881</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -794,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C11">
-        <v>-0.04601888183544189</v>
+        <v>-0.1646731858388349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -805,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>-0.1044494698466506</v>
+        <v>-0.4477800737299762</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -816,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.5177147883450293</v>
+        <v>-0.07420280503095994</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -827,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>-0.1258962275737374</v>
+        <v>-0.02192000783571402</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -838,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C15">
-        <v>-0.4332845277732771</v>
+        <v>-0.1966839343979263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -849,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>-0.3943003928378377</v>
+        <v>-0.07982924817270134</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -860,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>-0.1612745154984849</v>
+        <v>-0.1223037526561741</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>-0.1096778391959634</v>
+        <v>-0.1025553170087035</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -882,10 +882,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>-0.3529239986440259</v>
+        <v>-0.2143216972295072</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -893,10 +893,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>0.5111756030350039</v>
+        <v>-0.03682583221468219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -904,10 +904,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>-0.4925476719563462</v>
+        <v>-0.09577374039215669</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>-0.1360066877272731</v>
+        <v>1.416286760801073</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -926,10 +926,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>-0.1394625183668663</v>
+        <v>-0.6439029580113151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -937,10 +937,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>-0.1362249931835356</v>
+        <v>-0.08856517479669937</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -948,10 +948,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>1.798101974</v>
+        <v>-0.1722359881039679</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -959,10 +959,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>-0.370268720807449</v>
+        <v>-0.1351467864920133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -970,10 +970,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>-0.05629079285857141</v>
+        <v>-0.2571621382670894</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -981,10 +981,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>-0.2934192426730615</v>
+        <v>-0.07538465952557194</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -992,10 +992,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C29">
-        <v>-0.510946335814189</v>
+        <v>-0.1558947967538465</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C30">
-        <v>-0.2255401197222222</v>
+        <v>-0.1538477628745996</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1014,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.09623720404868519</v>
+        <v>-0.02229610599999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1025,10 +1025,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>-0.07176503026666664</v>
+        <v>-0.0739116346590416</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>-0.06711884678846158</v>
+        <v>-0.0359961964243698</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C34">
-        <v>-0.2541648789732828</v>
+        <v>-0.0187097325404649</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>-0.3097450691318682</v>
+        <v>-0.02835138724242414</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>-0.202381835070916</v>
+        <v>-0.481819594545438</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>-0.4209349497424815</v>
+        <v>-0.04979461341191424</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>-0.2353763333656463</v>
+        <v>0.6574637487248985</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C39">
-        <v>0.009593952604958378</v>
+        <v>-0.05136335794260949</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>-0.5430361020805552</v>
+        <v>-0.1893105192450979</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>-0.2684513682408205</v>
+        <v>-0.2124534013834641</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>-0.07487003933333347</v>
+        <v>-0.2342468817142856</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>-0.09661018464081994</v>
+        <v>-0.0005747280557406552</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>-0.05255088113653744</v>
+        <v>-0.09173879794130146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>33</v>
       </c>
       <c r="C45">
-        <v>-0.03882347693977753</v>
+        <v>-0.1842228729843362</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1179,10 +1179,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>-0.3611555681556148</v>
+        <v>-0.1594631592153092</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>-0.104174962389325</v>
+        <v>-0.003011242627247362</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1201,10 +1201,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>-0.5252552701372547</v>
+        <v>-0.1164717482954546</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>-0.4208733655348262</v>
+        <v>-0.6960887642859077</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>-0.05491208570919848</v>
+        <v>-0.5457700661590907</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>-0.1672939867161016</v>
+        <v>-0.2568895379573549</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>1944</v>
+        <v>2293</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\全球校园人工智能算法精英挑战赛\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0DB295-2B75-43ED-9346-33EFDDFFEA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="调度详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
   <si>
     <t>电动汽车序号</t>
   </si>
@@ -47,313 +53,470 @@
     <t>电动汽车 0 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 0 剩余电量和时间</t>
+    <t>电动汽车 0 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 0 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 1 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 1 剩余电量和时间</t>
+    <t>电动汽车 1 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 1 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 2 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 2 剩余电量和时间</t>
+    <t>电动汽车 2 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 2 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 3 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 3 剩余电量和时间</t>
+    <t>电动汽车 3 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 3 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 4 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 4 剩余电量和时间</t>
+    <t>电动汽车 4 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 4 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 5 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 5 剩余电量和时间</t>
+    <t>电动汽车 5 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 5 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 6 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 6 剩余电量和时间</t>
+    <t>电动汽车 6 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 6 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 7 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 7 剩余电量和时间</t>
+    <t>电动汽车 7 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 7 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 8 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 8 剩余电量和时间</t>
+    <t>电动汽车 8 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 8 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 9 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 9 剩余电量和时间</t>
+    <t>电动汽车 9 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 9 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 10 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 10 剩余电量和时间</t>
+    <t>电动汽车 10 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 10 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 11 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 11 剩余电量和时间</t>
+    <t>电动汽车 11 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 11 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 12 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 12 剩余电量和时间</t>
+    <t>电动汽车 12 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 12 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 13 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 13 剩余电量和时间</t>
+    <t>电动汽车 13 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 13 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 14 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 14 剩余电量和时间</t>
+    <t>电动汽车 14 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 14 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 15 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 15 剩余电量和时间</t>
+    <t>电动汽车 15 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 15 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 16 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 16 剩余电量和时间</t>
+    <t>电动汽车 16 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 16 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 17 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 17 剩余电量和时间</t>
+    <t>电动汽车 17 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 17 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 18 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 18 剩余电量和时间</t>
+    <t>电动汽车 18 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 18 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 19 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 19 剩余电量和时间</t>
+    <t>电动汽车 19 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 19 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 20 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 20 剩余电量和时间</t>
+    <t>电动汽车 20 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 20 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 21 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 21 剩余电量和时间</t>
+    <t>电动汽车 21 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 21 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 22 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 22 剩余电量和时间</t>
+    <t>电动汽车 22 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 22 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 23 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 23 剩余电量和时间</t>
+    <t>电动汽车 23 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 23 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 24 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 24 剩余电量和时间</t>
+    <t>电动汽车 24 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 24 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 25 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 25 剩余电量和时间</t>
+    <t>电动汽车 25 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 25 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 26 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 26 剩余电量和时间</t>
+    <t>电动汽车 26 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 26 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 27 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 27 剩余电量和时间</t>
+    <t>电动汽车 27 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 27 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 28 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 28 剩余电量和时间</t>
+    <t>电动汽车 28 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 28 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 29 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 29 剩余电量和时间</t>
+    <t>电动汽车 29 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 29 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 30 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 30 剩余电量和时间</t>
+    <t>电动汽车 30 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 30 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 31 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 31 剩余电量和时间</t>
+    <t>电动汽车 31 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 31 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 32 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 32 剩余电量和时间</t>
+    <t>电动汽车 32 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 32 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 33 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 33 剩余电量和时间</t>
+    <t>电动汽车 33 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 33 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 34 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 34 剩余电量和时间</t>
+    <t>电动汽车 34 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 34 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 35 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 35 剩余电量和时间</t>
+    <t>电动汽车 35 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 35 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 36 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 36 剩余电量和时间</t>
+    <t>电动汽车 36 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 36 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 37 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 37 剩余电量和时间</t>
+    <t>电动汽车 37 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 37 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 38 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 38 剩余电量和时间</t>
+    <t>电动汽车 38 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 38 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 39 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 39 剩余电量和时间</t>
+    <t>电动汽车 39 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 39 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 40 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 40 剩余电量和时间</t>
+    <t>电动汽车 40 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 40 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 41 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 41 剩余电量和时间</t>
+    <t>电动汽车 41 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 41 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 42 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 42 剩余电量和时间</t>
+    <t>电动汽车 42 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 42 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 43 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 43 剩余电量和时间</t>
+    <t>电动汽车 43 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 43 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 44 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 44 剩余电量和时间</t>
+    <t>电动汽车 44 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 44 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 45 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 45 剩余电量和时间</t>
+    <t>电动汽车 45 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 45 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 46 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 46 剩余电量和时间</t>
+    <t>电动汽车 46 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 46 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 47 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 47 剩余电量和时间</t>
+    <t>电动汽车 47 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 47 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 48 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 48 剩余电量和时间</t>
+    <t>电动汽车 48 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 48 剩余时间</t>
   </si>
   <si>
     <t>电动汽车 49 调度路径</t>
   </si>
   <si>
-    <t>电动汽车 49 剩余电量和时间</t>
+    <t>电动汽车 49 剩余电量</t>
+  </si>
+  <si>
+    <t>电动汽车 49 剩余时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,17 +544,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +600,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -463,6 +634,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -497,9 +669,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,14 +845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,128 +863,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>-0.05329672376185496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1.38177067222898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>-0.04274337231636902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.451946513349216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>-0.2595416808447265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.90758129577889035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>1.466164882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.96728254391525426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>-0.1464042825497364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.1693921951152539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>-0.3881708909152846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.95149240774858745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>-0.2401695608796535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.925257902915254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>-0.1182037102026573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.1268916279152541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>-0.1289745855095881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.9206054613476865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>-0.1646731858388349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1.1835520950319209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>-0.4477800737299762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1.045320846830508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -819,98 +992,98 @@
         <v>81</v>
       </c>
       <c r="C13">
-        <v>-0.07420280503095994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1.2736127635117449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>-0.02192000783571402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.2840256187352539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C15">
-        <v>-0.1966839343979263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.86511063635969887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C16">
-        <v>-0.07982924817270134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.99797009858192098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C17">
-        <v>-0.1223037526561741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1.3359157228930321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>-0.1025553170087035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1.1021034480731491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>-0.2143216972295072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1.204273916235254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C20">
-        <v>-0.03682583221468219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.4430725819152539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>-0.09577374039215669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.97904050985643043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -918,87 +1091,87 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>1.416286760801073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1.109957481915254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>-0.6439029580113151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1.1251574623728811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C24">
-        <v>-0.08856517479669937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1.255532399617008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>-0.1722359881039679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>1.0746718909152539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>-0.1351467864920133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1.3280206723492161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C27">
-        <v>-0.2571621382670894</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>1.222170780735254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>-0.07538465952557194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1.183258643349216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C29">
-        <v>-0.1558947967538465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.91543667464252698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1006,262 +1179,263 @@
         <v>69</v>
       </c>
       <c r="C30">
-        <v>-0.1538477628745996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.94324784748668267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>-0.02229610599999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>1.087570277298233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>-0.0739116346590416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1.182704622282601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>-0.0359961964243698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.90169738566815349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C34">
-        <v>-0.0187097325404649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1.3705875302289789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>-0.02835138724242414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.2151451005516181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>-0.481819594545438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>1.0141152333728809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>-0.04979461341191424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.86838449041525412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C38">
-        <v>0.6574637487248985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1.1253983007352539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>-0.05136335794260949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.272614653349216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C40">
-        <v>-0.1893105192450979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.0354795390128151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>-0.2124534013834641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1.3299422606170079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C42">
-        <v>-0.2342468817142856</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.92586347391525392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>-0.0005747280557406552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.1200930090128149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C44">
-        <v>-0.09173879794130146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>1.0630382993728811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C45">
-        <v>-0.1842228729843362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.85416056241525384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C46">
-        <v>-0.1594631592153092</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>1.3589794464942011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>-0.003011242627247362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>1.300014887893032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C48">
-        <v>-0.1164717482954546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>1.025379666915254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C49">
-        <v>-0.6960887642859077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.81232476934768649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C50">
-        <v>-0.5457700661590907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.88402977377889036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>-0.2568895379573549</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.88539681678704885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52">
-        <v>2293</v>
+        <v>3463</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1298,10 +1472,10 @@
         <v>97</v>
       </c>
       <c r="F2">
-        <v>1.791736114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.7917361140000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1318,10 +1492,10 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <v>1.934728501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.9347285009999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1338,10 +1512,10 @@
         <v>88</v>
       </c>
       <c r="F4">
-        <v>1.757860005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.7578600049999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1358,10 +1532,10 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>1.466164882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.4661648819999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1381,7 +1555,7 @@
         <v>1.698382348</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1398,10 +1572,10 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <v>1.622466536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.6224665359999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1421,7 +1595,7 @@
         <v>1.621945296</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1438,10 +1612,10 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>1.520099127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.5200991269999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1458,10 +1632,10 @@
         <v>99</v>
       </c>
       <c r="F10">
-        <v>1.659021022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.6590210219999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1481,7 +1655,7 @@
         <v>1.658529921</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1498,10 +1672,10 @@
         <v>98</v>
       </c>
       <c r="F12">
-        <v>1.762495925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.7624959250000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1518,10 +1692,10 @@
         <v>81</v>
       </c>
       <c r="F13">
-        <v>1.786134048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1.7861340480000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1541,7 +1715,7 @@
         <v>1.766143359</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1558,10 +1732,10 @@
         <v>89</v>
       </c>
       <c r="F15">
-        <v>1.528695807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1.5286958070000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1578,10 +1752,10 @@
         <v>91</v>
       </c>
       <c r="F16">
-        <v>1.659414125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1.6594141250000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1598,10 +1772,10 @@
         <v>99</v>
       </c>
       <c r="F17">
-        <v>1.772141684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1.7721416839999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1621,7 +1795,7 @@
         <v>1.782826488</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1638,10 +1812,10 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>1.60223672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1.6022367200000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1661,7 +1835,7 @@
         <v>1.836280081</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1678,10 +1852,10 @@
         <v>87</v>
       </c>
       <c r="F21">
-        <v>1.62622421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1.6262242099999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1701,7 +1875,7 @@
         <v>1.833387565</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1718,10 +1892,10 @@
         <v>82</v>
       </c>
       <c r="F23">
-        <v>1.603373952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1.6033739520000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1741,7 +1915,7 @@
         <v>1.748807188</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1758,10 +1932,10 @@
         <v>94</v>
       </c>
       <c r="F25">
-        <v>1.798101974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1.7981019739999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1781,7 +1955,7 @@
         <v>1.81080266</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1798,10 +1972,10 @@
         <v>82</v>
       </c>
       <c r="F27">
-        <v>1.704288521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1.7042885210000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1821,7 +1995,7 @@
         <v>1.666040631</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1841,7 +2015,7 @@
         <v>1.670313835</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1858,10 +2032,10 @@
         <v>89</v>
       </c>
       <c r="F30">
-        <v>1.796379152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.7963791520000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1878,10 +2052,10 @@
         <v>96</v>
       </c>
       <c r="F31">
-        <v>1.630308194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>1.6303081939999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1901,7 +2075,7 @@
         <v>1.584958705</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1921,7 +2095,7 @@
         <v>1.521732568</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1941,7 +2115,7 @@
         <v>1.780552972</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1958,10 +2132,10 @@
         <v>81</v>
       </c>
       <c r="F35">
-        <v>1.638053865</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1.6380538650000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1978,10 +2152,10 @@
         <v>86</v>
       </c>
       <c r="F36">
-        <v>1.492331723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.4923317229999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2001,7 +2175,7 @@
         <v>1.702279001</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2021,7 +2195,7 @@
         <v>1.607516041</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2038,10 +2212,10 @@
         <v>88</v>
       </c>
       <c r="F39">
-        <v>1.755396641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1.7553966409999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2061,7 +2235,7 @@
         <v>1.605162966</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2078,10 +2252,10 @@
         <v>97</v>
       </c>
       <c r="F41">
-        <v>1.823217049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1.8232170489999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2101,7 +2275,7 @@
         <v>1.622550867</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2121,7 +2295,7 @@
         <v>1.689776436</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2141,7 +2315,7 @@
         <v>1.604084305</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2158,10 +2332,10 @@
         <v>100</v>
       </c>
       <c r="F45">
-        <v>1.688055073</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1.6880550729999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2181,7 +2355,7 @@
         <v>1.858549488</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2198,10 +2372,10 @@
         <v>90</v>
       </c>
       <c r="F47">
-        <v>1.736240849</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1.7362408490000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2218,10 +2392,10 @@
         <v>99</v>
       </c>
       <c r="F48">
-        <v>1.723448708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1.7234487080000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2241,7 +2415,7 @@
         <v>1.71371037</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2261,7 +2435,7 @@
         <v>1.734308483</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2281,507 +2455,2081 @@
         <v>1.779696315</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="B53">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="B55">
+        <v>1.700581665313726</v>
+      </c>
+      <c r="C55">
+        <v>1.541176168771353</v>
+      </c>
+      <c r="D55">
+        <v>1.38177067222898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="B57">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="B59">
+        <v>1.770757506433962</v>
+      </c>
+      <c r="C59">
+        <v>1.611352009891589</v>
+      </c>
+      <c r="D59">
+        <v>1.451946513349216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>42</v>
+      </c>
+      <c r="C61">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>1.226392288863636</v>
+      </c>
+      <c r="C63">
+        <v>1.066986792321263</v>
+      </c>
+      <c r="D63">
+        <v>0.90758129577889035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B66">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>53</v>
+      </c>
+      <c r="D66">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>1.286093537</v>
+      </c>
+      <c r="C67">
+        <v>1.1266880404576269</v>
+      </c>
+      <c r="D67">
+        <v>0.96728254391525426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>1.4882031882</v>
+      </c>
+      <c r="C71">
+        <v>1.328797691657627</v>
+      </c>
+      <c r="D71">
+        <v>1.1693921951152539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>59</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <v>1.2703034008333329</v>
+      </c>
+      <c r="C75">
+        <v>1.1108979042909599</v>
+      </c>
+      <c r="D75">
+        <v>0.95149240774858745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>1.2440688959999999</v>
+      </c>
+      <c r="C79">
+        <v>1.0846633994576269</v>
+      </c>
+      <c r="D79">
+        <v>0.925257902915254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>47</v>
+      </c>
+      <c r="D82">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>1.4457026209999999</v>
+      </c>
+      <c r="C83">
+        <v>1.2862971244576269</v>
+      </c>
+      <c r="D83">
+        <v>1.1268916279152541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85">
+        <v>42</v>
+      </c>
+      <c r="C85">
+        <v>33</v>
+      </c>
+      <c r="D85">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <v>36</v>
+      </c>
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87">
+        <v>1.239416454432432</v>
+      </c>
+      <c r="C87">
+        <v>1.080010957890059</v>
+      </c>
+      <c r="D87">
+        <v>0.9206054613476865</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89">
+        <v>42</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90">
+        <v>46</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>1.502363088116667</v>
+      </c>
+      <c r="C91">
+        <v>1.342957591574294</v>
+      </c>
+      <c r="D91">
+        <v>1.1835520950319209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93">
+        <v>42</v>
+      </c>
+      <c r="C93">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>53</v>
+      </c>
+      <c r="D94">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>1.364131839915254</v>
+      </c>
+      <c r="C95">
+        <v>1.204726343372881</v>
+      </c>
+      <c r="D95">
+        <v>1.045320846830508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97">
+        <v>42</v>
+      </c>
+      <c r="C97">
+        <v>33</v>
+      </c>
+      <c r="D97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98">
+        <v>59</v>
+      </c>
+      <c r="C98">
+        <v>74</v>
+      </c>
+      <c r="D98">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99">
+        <v>1.5924237565964909</v>
+      </c>
+      <c r="C99">
+        <v>1.4330182600541179</v>
+      </c>
+      <c r="D99">
+        <v>1.2736127635117449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101">
+        <v>42</v>
+      </c>
+      <c r="C101">
+        <v>33</v>
+      </c>
+      <c r="D101">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102">
+        <v>46</v>
+      </c>
+      <c r="C102">
+        <v>61</v>
+      </c>
+      <c r="D102">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103">
+        <v>1.6028366118199999</v>
+      </c>
+      <c r="C103">
+        <v>1.4434311152776269</v>
+      </c>
+      <c r="D103">
+        <v>1.2840256187352539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105">
+        <v>42</v>
+      </c>
+      <c r="C105">
+        <v>33</v>
+      </c>
+      <c r="D105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106">
+        <v>35</v>
+      </c>
+      <c r="C106">
+        <v>49</v>
+      </c>
+      <c r="D106">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107">
+        <v>1.183921629444445</v>
+      </c>
+      <c r="C107">
+        <v>1.024516132902072</v>
+      </c>
+      <c r="D107">
+        <v>0.86511063635969887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109">
+        <v>42</v>
+      </c>
+      <c r="C109">
+        <v>33</v>
+      </c>
+      <c r="D109">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111">
+        <v>1.3167810916666669</v>
+      </c>
+      <c r="C111">
+        <v>1.1573755951242941</v>
+      </c>
+      <c r="D111">
+        <v>0.99797009858192098</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113">
+        <v>42</v>
+      </c>
+      <c r="C113">
+        <v>33</v>
+      </c>
+      <c r="D113">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="C114">
+        <v>53</v>
+      </c>
+      <c r="D114">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115">
+        <v>1.6547267159777781</v>
+      </c>
+      <c r="C115">
+        <v>1.4953212194354051</v>
+      </c>
+      <c r="D115">
+        <v>1.3359157228930321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117">
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <v>33</v>
+      </c>
+      <c r="D117">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118">
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>51</v>
+      </c>
+      <c r="D118">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119">
+        <v>1.4209144411578949</v>
+      </c>
+      <c r="C119">
+        <v>1.2615089446155221</v>
+      </c>
+      <c r="D119">
+        <v>1.1021034480731491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121">
+        <v>42</v>
+      </c>
+      <c r="C121">
+        <v>33</v>
+      </c>
+      <c r="D121">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122">
+        <v>49</v>
+      </c>
+      <c r="C122">
+        <v>63</v>
+      </c>
+      <c r="D122">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123">
+        <v>1.5230849093200001</v>
+      </c>
+      <c r="C123">
+        <v>1.3636794127776271</v>
+      </c>
+      <c r="D123">
+        <v>1.204273916235254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126">
+        <v>48</v>
+      </c>
+      <c r="C126">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127">
+        <v>1.7618835749999999</v>
+      </c>
+      <c r="C127">
+        <v>1.6024780784576269</v>
+      </c>
+      <c r="D127">
+        <v>1.4430725819152539</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>33</v>
+      </c>
+      <c r="D129">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130">
+        <v>36</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131">
+        <v>1.2978515029411759</v>
+      </c>
+      <c r="C131">
+        <v>1.1384460063988029</v>
+      </c>
+      <c r="D131">
+        <v>0.97904050985643043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133">
+        <v>42</v>
+      </c>
+      <c r="C133">
+        <v>33</v>
+      </c>
+      <c r="D133">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134">
+        <v>35</v>
+      </c>
+      <c r="C134">
+        <v>49</v>
+      </c>
+      <c r="D134">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135">
+        <v>1.428768475</v>
+      </c>
+      <c r="C135">
+        <v>1.269362978457627</v>
+      </c>
+      <c r="D135">
+        <v>1.109957481915254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137">
+        <v>42</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+      <c r="D137">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138">
+        <v>52</v>
+      </c>
+      <c r="C138">
+        <v>66</v>
+      </c>
+      <c r="D138">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139">
+        <v>1.4439684554576271</v>
+      </c>
+      <c r="C139">
+        <v>1.2845629589152541</v>
+      </c>
+      <c r="D139">
+        <v>1.1251574623728811</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141">
+        <v>42</v>
+      </c>
+      <c r="C141">
+        <v>33</v>
+      </c>
+      <c r="D141">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="C142">
+        <v>42</v>
+      </c>
+      <c r="D142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143">
+        <v>1.5743433927017541</v>
+      </c>
+      <c r="C143">
+        <v>1.414937896159381</v>
+      </c>
+      <c r="D143">
+        <v>1.255532399617008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145">
+        <v>42</v>
+      </c>
+      <c r="C145">
+        <v>33</v>
+      </c>
+      <c r="D145">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B146">
+        <v>31</v>
+      </c>
+      <c r="C146">
+        <v>45</v>
+      </c>
+      <c r="D146">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147">
+        <v>1.393482884</v>
+      </c>
+      <c r="C147">
+        <v>1.234077387457627</v>
+      </c>
+      <c r="D147">
+        <v>1.0746718909152539</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149">
+        <v>42</v>
+      </c>
+      <c r="C149">
+        <v>33</v>
+      </c>
+      <c r="D149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150">
+        <v>41</v>
+      </c>
+      <c r="C150">
+        <v>55</v>
+      </c>
+      <c r="D150">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>83</v>
+      </c>
+      <c r="B151">
+        <v>1.6468316654339621</v>
+      </c>
+      <c r="C151">
+        <v>1.4874261688915891</v>
+      </c>
+      <c r="D151">
+        <v>1.3280206723492161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153">
+        <v>42</v>
+      </c>
+      <c r="C153">
+        <v>33</v>
+      </c>
+      <c r="D153">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154">
+        <v>31</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+      <c r="D154">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155">
+        <v>1.54098177382</v>
+      </c>
+      <c r="C155">
+        <v>1.381576277277627</v>
+      </c>
+      <c r="D155">
+        <v>1.222170780735254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157">
+        <v>42</v>
+      </c>
+      <c r="C157">
+        <v>33</v>
+      </c>
+      <c r="D157">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>54</v>
+      </c>
+      <c r="D158">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159">
+        <v>1.5020696364339621</v>
+      </c>
+      <c r="C159">
+        <v>1.3426641398915899</v>
+      </c>
+      <c r="D159">
+        <v>1.183258643349216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161">
+        <v>42</v>
+      </c>
+      <c r="C161">
+        <v>33</v>
+      </c>
+      <c r="D161">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B162">
+        <v>45</v>
+      </c>
+      <c r="C162">
+        <v>59</v>
+      </c>
+      <c r="D162">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163">
+        <v>1.2342476677272729</v>
+      </c>
+      <c r="C163">
+        <v>1.0748421711849001</v>
+      </c>
+      <c r="D163">
+        <v>0.91543667464252698</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>93</v>
+      </c>
+      <c r="B165">
+        <v>42</v>
+      </c>
+      <c r="C165">
+        <v>33</v>
+      </c>
+      <c r="D165">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>94</v>
+      </c>
+      <c r="B166">
+        <v>41</v>
+      </c>
+      <c r="C166">
+        <v>55</v>
+      </c>
+      <c r="D166">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>95</v>
+      </c>
+      <c r="B167">
+        <v>1.262058840571429</v>
+      </c>
+      <c r="C167">
+        <v>1.102653344029056</v>
+      </c>
+      <c r="D167">
+        <v>0.94324784748668267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>96</v>
+      </c>
+      <c r="B169">
+        <v>42</v>
+      </c>
+      <c r="C169">
+        <v>33</v>
+      </c>
+      <c r="D169">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170">
+        <v>63</v>
+      </c>
+      <c r="C170">
+        <v>77</v>
+      </c>
+      <c r="D170">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171">
+        <v>1.406381270382979</v>
+      </c>
+      <c r="C171">
+        <v>1.246975773840606</v>
+      </c>
+      <c r="D171">
+        <v>1.087570277298233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>99</v>
+      </c>
+      <c r="B173">
+        <v>42</v>
+      </c>
+      <c r="C173">
+        <v>33</v>
+      </c>
+      <c r="D173">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>100</v>
+      </c>
+      <c r="B174">
+        <v>39</v>
+      </c>
+      <c r="C174">
+        <v>53</v>
+      </c>
+      <c r="D174">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>101</v>
+      </c>
+      <c r="B175">
+        <v>1.501515615367347</v>
+      </c>
+      <c r="C175">
+        <v>1.342110118824974</v>
+      </c>
+      <c r="D175">
+        <v>1.182704622282601</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B178">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>104</v>
+      </c>
+      <c r="B179">
+        <v>1.061102882210526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>105</v>
+      </c>
+      <c r="B181">
+        <v>42</v>
+      </c>
+      <c r="C181">
+        <v>33</v>
+      </c>
+      <c r="D181">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>106</v>
+      </c>
+      <c r="B182">
+        <v>43</v>
+      </c>
+      <c r="C182">
+        <v>57</v>
+      </c>
+      <c r="D182">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183">
+        <v>1.689398523313725</v>
+      </c>
+      <c r="C183">
+        <v>1.529993026771352</v>
+      </c>
+      <c r="D183">
+        <v>1.3705875302289789</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>108</v>
+      </c>
+      <c r="B185">
+        <v>42</v>
+      </c>
+      <c r="C185">
+        <v>33</v>
+      </c>
+      <c r="D185">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>109</v>
+      </c>
+      <c r="B186">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="C186">
+        <v>46</v>
+      </c>
+      <c r="D186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187">
+        <v>1.5339560936363641</v>
+      </c>
+      <c r="C187">
+        <v>1.3745505970939911</v>
+      </c>
+      <c r="D187">
+        <v>1.2151451005516181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>111</v>
+      </c>
+      <c r="B189">
+        <v>42</v>
+      </c>
+      <c r="C189">
+        <v>33</v>
+      </c>
+      <c r="D189">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>112</v>
+      </c>
+      <c r="B190">
+        <v>50</v>
+      </c>
+      <c r="C190">
+        <v>64</v>
+      </c>
+      <c r="D190">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>113</v>
+      </c>
+      <c r="B191">
+        <v>1.3329262264576269</v>
+      </c>
+      <c r="C191">
+        <v>1.1735207299152539</v>
+      </c>
+      <c r="D191">
+        <v>1.0141152333728809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>114</v>
+      </c>
+      <c r="B193">
+        <v>42</v>
+      </c>
+      <c r="C193">
+        <v>33</v>
+      </c>
+      <c r="D193">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>115</v>
+      </c>
+      <c r="B194">
+        <v>27</v>
+      </c>
+      <c r="C194">
+        <v>41</v>
+      </c>
+      <c r="D194">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>116</v>
+      </c>
+      <c r="B195">
+        <v>1.1871954835</v>
+      </c>
+      <c r="C195">
+        <v>1.027789986957627</v>
+      </c>
+      <c r="D195">
+        <v>0.86838449041525412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>117</v>
+      </c>
+      <c r="B197">
+        <v>42</v>
+      </c>
+      <c r="C197">
+        <v>33</v>
+      </c>
+      <c r="D197">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>118</v>
+      </c>
+      <c r="B198">
+        <v>36</v>
+      </c>
+      <c r="C198">
+        <v>51</v>
+      </c>
+      <c r="D198">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>119</v>
+      </c>
+      <c r="B199">
+        <v>1.44420929382</v>
+      </c>
+      <c r="C199">
+        <v>1.2848037972776269</v>
+      </c>
+      <c r="D199">
+        <v>1.1253983007352539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>120</v>
+      </c>
+      <c r="B201">
+        <v>42</v>
+      </c>
+      <c r="C201">
+        <v>33</v>
+      </c>
+      <c r="D201">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>121</v>
+      </c>
+      <c r="B202">
+        <v>47</v>
+      </c>
+      <c r="C202">
+        <v>61</v>
+      </c>
+      <c r="D202">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>122</v>
+      </c>
+      <c r="B203">
+        <v>1.591425646433962</v>
+      </c>
+      <c r="C203">
+        <v>1.432020149891589</v>
+      </c>
+      <c r="D203">
+        <v>1.272614653349216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205">
+        <v>42</v>
+      </c>
+      <c r="C205">
+        <v>33</v>
+      </c>
+      <c r="D205">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>124</v>
+      </c>
+      <c r="B206">
+        <v>67</v>
+      </c>
+      <c r="C206">
+        <v>81</v>
+      </c>
+      <c r="D206">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>125</v>
+      </c>
+      <c r="B207">
+        <v>1.3542905320975609</v>
+      </c>
+      <c r="C207">
+        <v>1.1948850355551881</v>
+      </c>
+      <c r="D207">
+        <v>1.0354795390128151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>126</v>
+      </c>
+      <c r="B209">
+        <v>42</v>
+      </c>
+      <c r="C209">
+        <v>33</v>
+      </c>
+      <c r="D209">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>127</v>
+      </c>
+      <c r="B210">
+        <v>41</v>
+      </c>
+      <c r="C210">
+        <v>55</v>
+      </c>
+      <c r="D210">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>128</v>
+      </c>
+      <c r="B211">
+        <v>1.648753253701754</v>
+      </c>
+      <c r="C211">
+        <v>1.4893477571593809</v>
+      </c>
+      <c r="D211">
+        <v>1.3299422606170079</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>129</v>
+      </c>
+      <c r="B213">
+        <v>42</v>
+      </c>
+      <c r="C213">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>130</v>
+      </c>
+      <c r="B214">
+        <v>36</v>
+      </c>
+      <c r="C214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215">
+        <v>1.2446744670000001</v>
+      </c>
+      <c r="C215">
+        <v>1.085268970457627</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217">
+        <v>42</v>
+      </c>
+      <c r="C217">
+        <v>33</v>
+      </c>
+      <c r="D217">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>133</v>
+      </c>
+      <c r="B218">
+        <v>63</v>
+      </c>
+      <c r="C218">
+        <v>78</v>
+      </c>
+      <c r="D218">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>134</v>
+      </c>
+      <c r="B219">
+        <v>1.438904002097561</v>
+      </c>
+      <c r="C219">
+        <v>1.279498505555188</v>
+      </c>
+      <c r="D219">
+        <v>1.1200930090128149</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>135</v>
+      </c>
+      <c r="B221">
+        <v>42</v>
+      </c>
+      <c r="C221">
+        <v>33</v>
+      </c>
+      <c r="D221">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>136</v>
+      </c>
+      <c r="B222">
+        <v>48</v>
+      </c>
+      <c r="C222">
+        <v>62</v>
+      </c>
+      <c r="D222">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>137</v>
+      </c>
+      <c r="B223">
+        <v>1.3818492924576271</v>
+      </c>
+      <c r="C223">
+        <v>1.2224437959152541</v>
+      </c>
+      <c r="D223">
+        <v>1.0630382993728811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>138</v>
+      </c>
+      <c r="B225">
+        <v>42</v>
+      </c>
+      <c r="C225">
+        <v>33</v>
+      </c>
+      <c r="D225">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>139</v>
+      </c>
+      <c r="B226">
+        <v>43</v>
+      </c>
+      <c r="C226">
+        <v>57</v>
+      </c>
+      <c r="D226">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227">
+        <v>1.1729715555</v>
+      </c>
+      <c r="C227">
+        <v>1.013566058957627</v>
+      </c>
+      <c r="D227">
+        <v>0.85416056241525384</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>141</v>
+      </c>
+      <c r="B229">
+        <v>42</v>
+      </c>
+      <c r="C229">
+        <v>33</v>
+      </c>
+      <c r="D229">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>142</v>
+      </c>
+      <c r="B230">
+        <v>48</v>
+      </c>
+      <c r="C230">
+        <v>62</v>
+      </c>
+      <c r="D230">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>143</v>
+      </c>
+      <c r="B231">
+        <v>1.6777904395789469</v>
+      </c>
+      <c r="C231">
+        <v>1.5183849430365739</v>
+      </c>
+      <c r="D231">
+        <v>1.3589794464942011</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>144</v>
+      </c>
+      <c r="B233">
+        <v>42</v>
+      </c>
+      <c r="C233">
+        <v>33</v>
+      </c>
+      <c r="D233">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>145</v>
+      </c>
+      <c r="B234">
+        <v>36</v>
+      </c>
+      <c r="C234">
+        <v>50</v>
+      </c>
+      <c r="D234">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>146</v>
+      </c>
+      <c r="B235">
+        <v>1.618825880977778</v>
+      </c>
+      <c r="C235">
+        <v>1.459420384435405</v>
+      </c>
+      <c r="D235">
+        <v>1.300014887893032</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>147</v>
+      </c>
+      <c r="B237">
+        <v>42</v>
+      </c>
+      <c r="C237">
+        <v>33</v>
+      </c>
+      <c r="D237">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>148</v>
+      </c>
+      <c r="B238">
+        <v>82</v>
+      </c>
+      <c r="C238">
+        <v>96</v>
+      </c>
+      <c r="D238">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>149</v>
+      </c>
+      <c r="B239">
+        <v>1.34419066</v>
+      </c>
+      <c r="C239">
+        <v>1.184785163457627</v>
+      </c>
+      <c r="D239">
+        <v>1.025379666915254</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>150</v>
+      </c>
+      <c r="B241">
+        <v>42</v>
+      </c>
+      <c r="C241">
+        <v>33</v>
+      </c>
+      <c r="D241">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>151</v>
+      </c>
+      <c r="B242">
+        <v>41</v>
+      </c>
+      <c r="C242">
+        <v>55</v>
+      </c>
+      <c r="D242">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>152</v>
+      </c>
+      <c r="B243">
+        <v>1.1311357624324321</v>
+      </c>
+      <c r="C243">
+        <v>0.9717302658900594</v>
+      </c>
+      <c r="D243">
+        <v>0.81232476934768649</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>153</v>
+      </c>
+      <c r="B245">
+        <v>42</v>
+      </c>
+      <c r="C245">
+        <v>33</v>
+      </c>
+      <c r="D245">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>154</v>
+      </c>
+      <c r="B246">
+        <v>36</v>
+      </c>
+      <c r="C246">
+        <v>50</v>
+      </c>
+      <c r="D246">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247">
+        <v>1.2028407668636361</v>
+      </c>
+      <c r="C247">
+        <v>1.043435270321263</v>
+      </c>
+      <c r="D247">
+        <v>0.88402977377889036</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>156</v>
+      </c>
+      <c r="B249">
+        <v>42</v>
+      </c>
+      <c r="C249">
+        <v>33</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>157</v>
+      </c>
+      <c r="B250">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="C250">
         <v>49</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="D250">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>108</v>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>158</v>
+      </c>
+      <c r="B251">
+        <v>1.204207809871795</v>
+      </c>
+      <c r="C251">
+        <v>1.044802313329422</v>
+      </c>
+      <c r="D251">
+        <v>0.88539681678704885</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>